--- a/biology/Botanique/Aulne_crispé/Aulne_crispé.xlsx
+++ b/biology/Botanique/Aulne_crispé/Aulne_crispé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aulne_crisp%C3%A9</t>
+          <t>Aulne_crispé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alnus viridis subsp. crispa
 Alnus viridis subsp. crispa
-L'Aulne crispé[1] (Alnus viridis subsp. crispa) est une sous-espèce d'Aulne vert, Alnus viridis, de la famille des Betulaceae.
-C'est une des sources de nourriture de l'orignal[2].
+L'Aulne crispé (Alnus viridis subsp. crispa) est une sous-espèce d'Aulne vert, Alnus viridis, de la famille des Betulaceae.
+C'est une des sources de nourriture de l'orignal.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aulne_crisp%C3%A9</t>
+          <t>Aulne_crispé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est présente dans le nord-est de l'Amérique du Nord et au Groenland.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aulne_crisp%C3%A9</t>
+          <t>Aulne_crispé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>État, pressions, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une étude canadienne a observé sur un site boréal dominé par les saules (Salix L. spp.), l'aulne vert crispé (Alnus crispa (Ait.) Pursh ssp. crispa') et le peuplier faux-tremble (Populus tremuloides Michx.), durant 10 ans (et par rapport à des sites témoins comparables), les effets sur la diversité spécifique et structurale du sous-bois, d'une gestion forestière basée sur une préparation mécanique du sol. La communauté végétale s'est montrée très influencée par l'intensité du traitement de préparation du terrain : un travail léger du sol a eu peu d'effet sur la diversité spécifique, mais les traitements plus intenses « ont augmenté de 10 à 16 fois l'abondance des espèces exotiques (et seulement légèrement la croissance de l'épinette blanche (Picea glauca (Moench) Voss) » plantée par les sylviculteurs.
 </t>
